--- a/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad Institute_mulligan.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad Institute_mulligan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="810" windowWidth="14940" windowHeight="8610"/>
@@ -36,12 +36,12 @@
     <definedName name="sad">'[1]Assay Definition'!$E$7562:$E$7581</definedName>
     <definedName name="species_name">'Assay Definition'!$M$74:$M$117</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="909">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -2766,13 +2766,16 @@
   </si>
   <si>
     <t>|    |    |    single protein format</t>
+  </si>
+  <si>
+    <t>assay component role</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2903,7 +2906,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Assay Definition"/>
@@ -3086,6 +3089,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3120,6 +3124,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3295,19 +3300,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BL232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2490" ySplit="1965" topLeftCell="L13" activePane="bottomRight"/>
+      <pane xSplit="2490" ySplit="1965" topLeftCell="D13" activePane="topRight"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="topRight" activeCell="Z2" sqref="Z1:AB1048576"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
       <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
@@ -3341,7 +3346,7 @@
     <col min="59" max="59" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="3" customFormat="1" ht="76.5" customHeight="1">
+    <row r="1" spans="1:64" s="3" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3451,7 +3456,7 @@
       <c r="BG1" s="19"/>
       <c r="BH1" s="19"/>
     </row>
-    <row r="2" spans="1:64" s="4" customFormat="1" ht="25.5" customHeight="1">
+    <row r="2" spans="1:64" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
@@ -3471,7 +3476,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1</v>
+        <v>908</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>25</v>
@@ -3630,7 +3635,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="7" customFormat="1">
+    <row r="3" spans="1:64" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>877</v>
       </c>
@@ -3798,7 +3803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:64" s="7" customFormat="1">
+    <row r="4" spans="1:64" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>877</v>
       </c>
@@ -3823,7 +3828,7 @@
       <c r="BF4" s="8"/>
       <c r="BG4" s="13"/>
     </row>
-    <row r="5" spans="1:64">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>102</v>
       </c>
@@ -3993,7 +3998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:64">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>102</v>
       </c>
@@ -4040,7 +4045,7 @@
       <c r="BE6"/>
       <c r="BF6" s="12"/>
     </row>
-    <row r="7" spans="1:64">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>878</v>
       </c>
@@ -4210,7 +4215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:64">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>878</v>
       </c>
@@ -4257,7 +4262,7 @@
       <c r="BE8"/>
       <c r="BF8" s="12"/>
     </row>
-    <row r="9" spans="1:64">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>879</v>
       </c>
@@ -4427,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:64">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>879</v>
       </c>
@@ -4474,7 +4479,7 @@
       <c r="BE10"/>
       <c r="BF10" s="12"/>
     </row>
-    <row r="11" spans="1:64">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>880</v>
       </c>
@@ -4642,7 +4647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:64">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>880</v>
       </c>
@@ -4687,7 +4692,7 @@
       <c r="BE12"/>
       <c r="BF12" s="12"/>
     </row>
-    <row r="13" spans="1:64" ht="12" customHeight="1">
+    <row r="13" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>881</v>
       </c>
@@ -4806,7 +4811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="12" customHeight="1">
+    <row r="14" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>881</v>
       </c>
@@ -4853,7 +4858,7 @@
       <c r="BE14"/>
       <c r="BF14" s="12"/>
     </row>
-    <row r="15" spans="1:64">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>882</v>
       </c>
@@ -5023,7 +5028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:64">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>882</v>
       </c>
@@ -5071,7 +5076,7 @@
       <c r="BF16" s="12"/>
       <c r="BG16" s="13"/>
     </row>
-    <row r="17" spans="1:64">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>883</v>
       </c>
@@ -5239,7 +5244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:64">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>883</v>
       </c>
@@ -5284,7 +5289,7 @@
       <c r="BE18"/>
       <c r="BF18" s="12"/>
     </row>
-    <row r="19" spans="1:64">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>884</v>
       </c>
@@ -5454,7 +5459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:64">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>884</v>
       </c>
@@ -5502,7 +5507,7 @@
       <c r="BF20" s="12"/>
       <c r="BG20" s="13"/>
     </row>
-    <row r="21" spans="1:64">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>885</v>
       </c>
@@ -5672,7 +5677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:64">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>885</v>
       </c>
@@ -5719,7 +5724,7 @@
       <c r="BE22"/>
       <c r="BF22" s="12"/>
     </row>
-    <row r="23" spans="1:64">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>886</v>
       </c>
@@ -5889,7 +5894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:64">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>886</v>
       </c>
@@ -5936,7 +5941,7 @@
       <c r="BE24"/>
       <c r="BF24" s="12"/>
     </row>
-    <row r="25" spans="1:64">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>887</v>
       </c>
@@ -6106,7 +6111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:64">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>887</v>
       </c>
@@ -6153,7 +6158,7 @@
       <c r="BE26"/>
       <c r="BF26" s="12"/>
     </row>
-    <row r="27" spans="1:64">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>493167</v>
       </c>
@@ -6319,7 +6324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:64">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>493167</v>
       </c>
@@ -6365,7 +6370,7 @@
       <c r="BE28"/>
       <c r="BF28" s="12"/>
     </row>
-    <row r="29" spans="1:64">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>493172</v>
       </c>
@@ -6531,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:64">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>493172</v>
       </c>
@@ -6577,7 +6582,7 @@
       <c r="BE30"/>
       <c r="BF30" s="12"/>
     </row>
-    <row r="31" spans="1:64">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.2">
       <c r="BA31"/>
       <c r="BB31"/>
       <c r="BC31"/>
@@ -6585,7 +6590,7 @@
       <c r="BE31"/>
       <c r="BF31" s="12"/>
     </row>
-    <row r="32" spans="1:64">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.2">
       <c r="BA32"/>
       <c r="BB32"/>
       <c r="BC32"/>
@@ -6593,7 +6598,7 @@
       <c r="BE32"/>
       <c r="BF32" s="12"/>
     </row>
-    <row r="33" spans="4:58">
+    <row r="33" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA33"/>
       <c r="BB33"/>
       <c r="BC33"/>
@@ -6601,7 +6606,7 @@
       <c r="BE33"/>
       <c r="BF33" s="12"/>
     </row>
-    <row r="34" spans="4:58">
+    <row r="34" spans="4:58" x14ac:dyDescent="0.2">
       <c r="D34" s="15"/>
       <c r="BA34"/>
       <c r="BB34"/>
@@ -6610,7 +6615,7 @@
       <c r="BE34"/>
       <c r="BF34" s="12"/>
     </row>
-    <row r="35" spans="4:58">
+    <row r="35" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA35"/>
       <c r="BB35"/>
       <c r="BC35"/>
@@ -6618,7 +6623,7 @@
       <c r="BE35"/>
       <c r="BF35" s="12"/>
     </row>
-    <row r="36" spans="4:58">
+    <row r="36" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA36"/>
       <c r="BB36"/>
       <c r="BC36"/>
@@ -6626,7 +6631,7 @@
       <c r="BE36"/>
       <c r="BF36" s="12"/>
     </row>
-    <row r="37" spans="4:58">
+    <row r="37" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA37"/>
       <c r="BB37"/>
       <c r="BC37"/>
@@ -6634,7 +6639,7 @@
       <c r="BE37"/>
       <c r="BF37" s="12"/>
     </row>
-    <row r="38" spans="4:58">
+    <row r="38" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA38"/>
       <c r="BB38"/>
       <c r="BC38"/>
@@ -6642,7 +6647,7 @@
       <c r="BE38"/>
       <c r="BF38" s="12"/>
     </row>
-    <row r="39" spans="4:58">
+    <row r="39" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA39"/>
       <c r="BB39"/>
       <c r="BC39"/>
@@ -6650,7 +6655,7 @@
       <c r="BE39"/>
       <c r="BF39" s="12"/>
     </row>
-    <row r="40" spans="4:58">
+    <row r="40" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA40"/>
       <c r="BB40"/>
       <c r="BC40"/>
@@ -6658,7 +6663,7 @@
       <c r="BE40"/>
       <c r="BF40" s="12"/>
     </row>
-    <row r="41" spans="4:58">
+    <row r="41" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA41"/>
       <c r="BB41"/>
       <c r="BC41"/>
@@ -6666,7 +6671,7 @@
       <c r="BE41"/>
       <c r="BF41" s="12"/>
     </row>
-    <row r="42" spans="4:58">
+    <row r="42" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA42"/>
       <c r="BB42"/>
       <c r="BC42"/>
@@ -6674,7 +6679,7 @@
       <c r="BE42"/>
       <c r="BF42" s="12"/>
     </row>
-    <row r="43" spans="4:58">
+    <row r="43" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA43"/>
       <c r="BB43"/>
       <c r="BC43"/>
@@ -6682,7 +6687,7 @@
       <c r="BE43"/>
       <c r="BF43" s="12"/>
     </row>
-    <row r="44" spans="4:58">
+    <row r="44" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA44"/>
       <c r="BB44"/>
       <c r="BC44"/>
@@ -6690,7 +6695,7 @@
       <c r="BE44"/>
       <c r="BF44" s="12"/>
     </row>
-    <row r="45" spans="4:58">
+    <row r="45" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA45"/>
       <c r="BB45"/>
       <c r="BC45"/>
@@ -6698,7 +6703,7 @@
       <c r="BE45"/>
       <c r="BF45" s="12"/>
     </row>
-    <row r="46" spans="4:58">
+    <row r="46" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA46"/>
       <c r="BB46"/>
       <c r="BC46"/>
@@ -6706,7 +6711,7 @@
       <c r="BE46"/>
       <c r="BF46" s="12"/>
     </row>
-    <row r="47" spans="4:58">
+    <row r="47" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA47"/>
       <c r="BB47"/>
       <c r="BC47"/>
@@ -6714,7 +6719,7 @@
       <c r="BE47"/>
       <c r="BF47" s="12"/>
     </row>
-    <row r="48" spans="4:58">
+    <row r="48" spans="4:58" x14ac:dyDescent="0.2">
       <c r="BA48"/>
       <c r="BB48"/>
       <c r="BC48"/>
@@ -6722,7 +6727,7 @@
       <c r="BE48"/>
       <c r="BF48" s="12"/>
     </row>
-    <row r="49" spans="53:58">
+    <row r="49" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA49"/>
       <c r="BB49"/>
       <c r="BC49"/>
@@ -6730,7 +6735,7 @@
       <c r="BE49"/>
       <c r="BF49" s="12"/>
     </row>
-    <row r="50" spans="53:58">
+    <row r="50" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA50"/>
       <c r="BB50"/>
       <c r="BC50"/>
@@ -6738,7 +6743,7 @@
       <c r="BE50"/>
       <c r="BF50" s="12"/>
     </row>
-    <row r="51" spans="53:58">
+    <row r="51" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA51"/>
       <c r="BB51"/>
       <c r="BC51"/>
@@ -6746,7 +6751,7 @@
       <c r="BE51"/>
       <c r="BF51" s="12"/>
     </row>
-    <row r="52" spans="53:58">
+    <row r="52" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA52"/>
       <c r="BB52"/>
       <c r="BC52"/>
@@ -6754,7 +6759,7 @@
       <c r="BE52"/>
       <c r="BF52" s="12"/>
     </row>
-    <row r="53" spans="53:58">
+    <row r="53" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA53"/>
       <c r="BB53"/>
       <c r="BC53"/>
@@ -6762,7 +6767,7 @@
       <c r="BE53"/>
       <c r="BF53" s="12"/>
     </row>
-    <row r="54" spans="53:58">
+    <row r="54" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA54"/>
       <c r="BB54"/>
       <c r="BC54"/>
@@ -6770,7 +6775,7 @@
       <c r="BE54"/>
       <c r="BF54" s="12"/>
     </row>
-    <row r="55" spans="53:58">
+    <row r="55" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA55"/>
       <c r="BB55"/>
       <c r="BC55"/>
@@ -6778,7 +6783,7 @@
       <c r="BE55"/>
       <c r="BF55" s="12"/>
     </row>
-    <row r="56" spans="53:58">
+    <row r="56" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA56"/>
       <c r="BB56"/>
       <c r="BC56"/>
@@ -6786,7 +6791,7 @@
       <c r="BE56"/>
       <c r="BF56" s="12"/>
     </row>
-    <row r="57" spans="53:58">
+    <row r="57" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA57"/>
       <c r="BB57"/>
       <c r="BC57"/>
@@ -6794,7 +6799,7 @@
       <c r="BE57"/>
       <c r="BF57" s="12"/>
     </row>
-    <row r="58" spans="53:58">
+    <row r="58" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA58"/>
       <c r="BB58"/>
       <c r="BC58"/>
@@ -6802,7 +6807,7 @@
       <c r="BE58"/>
       <c r="BF58" s="12"/>
     </row>
-    <row r="59" spans="53:58">
+    <row r="59" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA59"/>
       <c r="BB59"/>
       <c r="BC59"/>
@@ -6810,7 +6815,7 @@
       <c r="BE59"/>
       <c r="BF59" s="12"/>
     </row>
-    <row r="60" spans="53:58">
+    <row r="60" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA60"/>
       <c r="BB60"/>
       <c r="BC60"/>
@@ -6818,7 +6823,7 @@
       <c r="BE60"/>
       <c r="BF60" s="12"/>
     </row>
-    <row r="61" spans="53:58">
+    <row r="61" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA61"/>
       <c r="BB61"/>
       <c r="BC61"/>
@@ -6826,7 +6831,7 @@
       <c r="BE61"/>
       <c r="BF61" s="12"/>
     </row>
-    <row r="62" spans="53:58">
+    <row r="62" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA62"/>
       <c r="BB62"/>
       <c r="BC62"/>
@@ -6834,7 +6839,7 @@
       <c r="BE62"/>
       <c r="BF62" s="12"/>
     </row>
-    <row r="63" spans="53:58">
+    <row r="63" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA63"/>
       <c r="BB63"/>
       <c r="BC63"/>
@@ -6842,7 +6847,7 @@
       <c r="BE63"/>
       <c r="BF63" s="12"/>
     </row>
-    <row r="64" spans="53:58">
+    <row r="64" spans="53:58" x14ac:dyDescent="0.2">
       <c r="BA64"/>
       <c r="BB64"/>
       <c r="BC64"/>
@@ -6850,7 +6855,7 @@
       <c r="BE64"/>
       <c r="BF64" s="12"/>
     </row>
-    <row r="65" spans="3:58">
+    <row r="65" spans="3:58" x14ac:dyDescent="0.2">
       <c r="BA65"/>
       <c r="BB65"/>
       <c r="BC65"/>
@@ -6858,7 +6863,7 @@
       <c r="BE65"/>
       <c r="BF65" s="12"/>
     </row>
-    <row r="66" spans="3:58">
+    <row r="66" spans="3:58" x14ac:dyDescent="0.2">
       <c r="BA66"/>
       <c r="BB66"/>
       <c r="BC66"/>
@@ -6866,7 +6871,7 @@
       <c r="BE66"/>
       <c r="BF66" s="12"/>
     </row>
-    <row r="67" spans="3:58">
+    <row r="67" spans="3:58" x14ac:dyDescent="0.2">
       <c r="BA67"/>
       <c r="BB67"/>
       <c r="BC67"/>
@@ -6874,7 +6879,7 @@
       <c r="BE67"/>
       <c r="BF67" s="12"/>
     </row>
-    <row r="68" spans="3:58">
+    <row r="68" spans="3:58" x14ac:dyDescent="0.2">
       <c r="BA68"/>
       <c r="BB68"/>
       <c r="BC68"/>
@@ -6882,7 +6887,7 @@
       <c r="BE68"/>
       <c r="BF68" s="12"/>
     </row>
-    <row r="69" spans="3:58">
+    <row r="69" spans="3:58" x14ac:dyDescent="0.2">
       <c r="BA69"/>
       <c r="BB69"/>
       <c r="BC69"/>
@@ -6890,7 +6895,7 @@
       <c r="BE69"/>
       <c r="BF69" s="12"/>
     </row>
-    <row r="70" spans="3:58">
+    <row r="70" spans="3:58" x14ac:dyDescent="0.2">
       <c r="BA70"/>
       <c r="BB70"/>
       <c r="BC70"/>
@@ -6898,7 +6903,7 @@
       <c r="BE70"/>
       <c r="BF70" s="12"/>
     </row>
-    <row r="71" spans="3:58">
+    <row r="71" spans="3:58" x14ac:dyDescent="0.2">
       <c r="BA71"/>
       <c r="BB71"/>
       <c r="BC71"/>
@@ -6906,7 +6911,7 @@
       <c r="BE71"/>
       <c r="BF71" s="12"/>
     </row>
-    <row r="72" spans="3:58">
+    <row r="72" spans="3:58" x14ac:dyDescent="0.2">
       <c r="BA72"/>
       <c r="BB72"/>
       <c r="BC72"/>
@@ -6914,7 +6919,7 @@
       <c r="BE72"/>
       <c r="BF72" s="12"/>
     </row>
-    <row r="73" spans="3:58">
+    <row r="73" spans="3:58" x14ac:dyDescent="0.2">
       <c r="BA73"/>
       <c r="BB73"/>
       <c r="BC73"/>
@@ -6922,7 +6927,7 @@
       <c r="BE73"/>
       <c r="BF73" s="12"/>
     </row>
-    <row r="74" spans="3:58">
+    <row r="74" spans="3:58" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>109</v>
       </c>
@@ -6984,7 +6989,7 @@
       <c r="BE74"/>
       <c r="BF74"/>
     </row>
-    <row r="75" spans="3:58">
+    <row r="75" spans="3:58" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>126</v>
       </c>
@@ -7046,7 +7051,7 @@
       <c r="BE75"/>
       <c r="BF75"/>
     </row>
-    <row r="76" spans="3:58">
+    <row r="76" spans="3:58" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>143</v>
       </c>
@@ -7105,7 +7110,7 @@
       <c r="BE76"/>
       <c r="BF76"/>
     </row>
-    <row r="77" spans="3:58">
+    <row r="77" spans="3:58" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>159</v>
       </c>
@@ -7161,7 +7166,7 @@
       <c r="BE77"/>
       <c r="BF77"/>
     </row>
-    <row r="78" spans="3:58">
+    <row r="78" spans="3:58" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>172</v>
       </c>
@@ -7214,7 +7219,7 @@
       <c r="BE78"/>
       <c r="BF78"/>
     </row>
-    <row r="79" spans="3:58">
+    <row r="79" spans="3:58" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>185</v>
       </c>
@@ -7264,7 +7269,7 @@
       <c r="BE79"/>
       <c r="BF79"/>
     </row>
-    <row r="80" spans="3:58">
+    <row r="80" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
         <v>198</v>
       </c>
@@ -7311,7 +7316,7 @@
       <c r="BE80"/>
       <c r="BF80"/>
     </row>
-    <row r="81" spans="5:58">
+    <row r="81" spans="5:58" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
         <v>209</v>
       </c>
@@ -7358,7 +7363,7 @@
       <c r="BE81"/>
       <c r="BF81"/>
     </row>
-    <row r="82" spans="5:58">
+    <row r="82" spans="5:58" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
         <v>220</v>
       </c>
@@ -7405,7 +7410,7 @@
       <c r="BE82"/>
       <c r="BF82"/>
     </row>
-    <row r="83" spans="5:58">
+    <row r="83" spans="5:58" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
         <v>231</v>
       </c>
@@ -7452,7 +7457,7 @@
       <c r="BE83"/>
       <c r="BF83"/>
     </row>
-    <row r="84" spans="5:58">
+    <row r="84" spans="5:58" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
         <v>242</v>
       </c>
@@ -7499,7 +7504,7 @@
       <c r="BE84"/>
       <c r="BF84"/>
     </row>
-    <row r="85" spans="5:58">
+    <row r="85" spans="5:58" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
         <v>253</v>
       </c>
@@ -7546,7 +7551,7 @@
       <c r="BE85"/>
       <c r="BF85"/>
     </row>
-    <row r="86" spans="5:58">
+    <row r="86" spans="5:58" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
         <v>264</v>
       </c>
@@ -7593,7 +7598,7 @@
       <c r="BE86"/>
       <c r="BF86"/>
     </row>
-    <row r="87" spans="5:58">
+    <row r="87" spans="5:58" x14ac:dyDescent="0.2">
       <c r="F87" t="s">
         <v>275</v>
       </c>
@@ -7637,7 +7642,7 @@
       <c r="BE87"/>
       <c r="BF87"/>
     </row>
-    <row r="88" spans="5:58">
+    <row r="88" spans="5:58" x14ac:dyDescent="0.2">
       <c r="F88" t="s">
         <v>286</v>
       </c>
@@ -7681,7 +7686,7 @@
       <c r="BE88"/>
       <c r="BF88"/>
     </row>
-    <row r="89" spans="5:58">
+    <row r="89" spans="5:58" x14ac:dyDescent="0.2">
       <c r="F89" t="s">
         <v>297</v>
       </c>
@@ -7722,7 +7727,7 @@
       <c r="BE89"/>
       <c r="BF89"/>
     </row>
-    <row r="90" spans="5:58">
+    <row r="90" spans="5:58" x14ac:dyDescent="0.2">
       <c r="F90" t="s">
         <v>307</v>
       </c>
@@ -7763,7 +7768,7 @@
       <c r="BE90"/>
       <c r="BF90"/>
     </row>
-    <row r="91" spans="5:58">
+    <row r="91" spans="5:58" x14ac:dyDescent="0.2">
       <c r="F91" t="s">
         <v>316</v>
       </c>
@@ -7804,7 +7809,7 @@
       <c r="BE91"/>
       <c r="BF91"/>
     </row>
-    <row r="92" spans="5:58">
+    <row r="92" spans="5:58" x14ac:dyDescent="0.2">
       <c r="F92" t="s">
         <v>326</v>
       </c>
@@ -7845,7 +7850,7 @@
       <c r="BE92"/>
       <c r="BF92"/>
     </row>
-    <row r="93" spans="5:58">
+    <row r="93" spans="5:58" x14ac:dyDescent="0.2">
       <c r="F93" t="s">
         <v>335</v>
       </c>
@@ -7886,7 +7891,7 @@
       <c r="BE93"/>
       <c r="BF93"/>
     </row>
-    <row r="94" spans="5:58">
+    <row r="94" spans="5:58" x14ac:dyDescent="0.2">
       <c r="F94" t="s">
         <v>345</v>
       </c>
@@ -7927,7 +7932,7 @@
       <c r="BE94"/>
       <c r="BF94"/>
     </row>
-    <row r="95" spans="5:58">
+    <row r="95" spans="5:58" x14ac:dyDescent="0.2">
       <c r="F95" t="s">
         <v>355</v>
       </c>
@@ -7965,7 +7970,7 @@
       <c r="BE95"/>
       <c r="BF95"/>
     </row>
-    <row r="96" spans="5:58">
+    <row r="96" spans="5:58" x14ac:dyDescent="0.2">
       <c r="F96" t="s">
         <v>364</v>
       </c>
@@ -8003,7 +8008,7 @@
       <c r="BE96"/>
       <c r="BF96"/>
     </row>
-    <row r="97" spans="6:58">
+    <row r="97" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F97" t="s">
         <v>372</v>
       </c>
@@ -8041,7 +8046,7 @@
       <c r="BE97"/>
       <c r="BF97"/>
     </row>
-    <row r="98" spans="6:58">
+    <row r="98" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F98" t="s">
         <v>380</v>
       </c>
@@ -8079,7 +8084,7 @@
       <c r="BE98"/>
       <c r="BF98"/>
     </row>
-    <row r="99" spans="6:58">
+    <row r="99" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F99" t="s">
         <v>389</v>
       </c>
@@ -8117,7 +8122,7 @@
       <c r="BE99"/>
       <c r="BF99"/>
     </row>
-    <row r="100" spans="6:58">
+    <row r="100" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F100" t="s">
         <v>398</v>
       </c>
@@ -8155,7 +8160,7 @@
       <c r="BE100"/>
       <c r="BF100"/>
     </row>
-    <row r="101" spans="6:58">
+    <row r="101" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F101" t="s">
         <v>407</v>
       </c>
@@ -8193,7 +8198,7 @@
       <c r="BE101"/>
       <c r="BF101"/>
     </row>
-    <row r="102" spans="6:58">
+    <row r="102" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F102" t="s">
         <v>416</v>
       </c>
@@ -8231,7 +8236,7 @@
       <c r="BE102"/>
       <c r="BF102"/>
     </row>
-    <row r="103" spans="6:58">
+    <row r="103" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F103" t="s">
         <v>425</v>
       </c>
@@ -8269,7 +8274,7 @@
       <c r="BE103"/>
       <c r="BF103"/>
     </row>
-    <row r="104" spans="6:58">
+    <row r="104" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F104" t="s">
         <v>434</v>
       </c>
@@ -8307,7 +8312,7 @@
       <c r="BE104"/>
       <c r="BF104"/>
     </row>
-    <row r="105" spans="6:58">
+    <row r="105" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F105" t="s">
         <v>443</v>
       </c>
@@ -8345,7 +8350,7 @@
       <c r="BE105"/>
       <c r="BF105"/>
     </row>
-    <row r="106" spans="6:58">
+    <row r="106" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F106" t="s">
         <v>452</v>
       </c>
@@ -8383,7 +8388,7 @@
       <c r="BE106"/>
       <c r="BF106"/>
     </row>
-    <row r="107" spans="6:58">
+    <row r="107" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F107" t="s">
         <v>459</v>
       </c>
@@ -8421,7 +8426,7 @@
       <c r="BE107"/>
       <c r="BF107"/>
     </row>
-    <row r="108" spans="6:58">
+    <row r="108" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F108" t="s">
         <v>467</v>
       </c>
@@ -8459,7 +8464,7 @@
       <c r="BE108"/>
       <c r="BF108"/>
     </row>
-    <row r="109" spans="6:58">
+    <row r="109" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F109" t="s">
         <v>475</v>
       </c>
@@ -8497,7 +8502,7 @@
       <c r="BE109"/>
       <c r="BF109"/>
     </row>
-    <row r="110" spans="6:58">
+    <row r="110" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F110" t="s">
         <v>483</v>
       </c>
@@ -8532,7 +8537,7 @@
       <c r="BE110"/>
       <c r="BF110"/>
     </row>
-    <row r="111" spans="6:58">
+    <row r="111" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F111" t="s">
         <v>490</v>
       </c>
@@ -8567,7 +8572,7 @@
       <c r="BE111"/>
       <c r="BF111"/>
     </row>
-    <row r="112" spans="6:58">
+    <row r="112" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F112" t="s">
         <v>497</v>
       </c>
@@ -8602,7 +8607,7 @@
       <c r="BE112"/>
       <c r="BF112"/>
     </row>
-    <row r="113" spans="6:58">
+    <row r="113" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F113" t="s">
         <v>504</v>
       </c>
@@ -8634,7 +8639,7 @@
       <c r="BE113"/>
       <c r="BF113"/>
     </row>
-    <row r="114" spans="6:58">
+    <row r="114" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F114" t="s">
         <v>510</v>
       </c>
@@ -8666,7 +8671,7 @@
       <c r="BE114"/>
       <c r="BF114"/>
     </row>
-    <row r="115" spans="6:58">
+    <row r="115" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F115" t="s">
         <v>516</v>
       </c>
@@ -8698,7 +8703,7 @@
       <c r="BE115"/>
       <c r="BF115"/>
     </row>
-    <row r="116" spans="6:58">
+    <row r="116" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F116" t="s">
         <v>522</v>
       </c>
@@ -8730,7 +8735,7 @@
       <c r="BE116"/>
       <c r="BF116"/>
     </row>
-    <row r="117" spans="6:58">
+    <row r="117" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F117" t="s">
         <v>528</v>
       </c>
@@ -8759,7 +8764,7 @@
       <c r="BE117"/>
       <c r="BF117"/>
     </row>
-    <row r="118" spans="6:58">
+    <row r="118" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F118" t="s">
         <v>533</v>
       </c>
@@ -8788,7 +8793,7 @@
       <c r="BE118"/>
       <c r="BF118"/>
     </row>
-    <row r="119" spans="6:58">
+    <row r="119" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F119" t="s">
         <v>538</v>
       </c>
@@ -8817,7 +8822,7 @@
       <c r="BE119"/>
       <c r="BF119"/>
     </row>
-    <row r="120" spans="6:58">
+    <row r="120" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F120" t="s">
         <v>543</v>
       </c>
@@ -8846,7 +8851,7 @@
       <c r="BE120"/>
       <c r="BF120"/>
     </row>
-    <row r="121" spans="6:58">
+    <row r="121" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F121" t="s">
         <v>548</v>
       </c>
@@ -8875,7 +8880,7 @@
       <c r="BE121"/>
       <c r="BF121"/>
     </row>
-    <row r="122" spans="6:58">
+    <row r="122" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F122" t="s">
         <v>553</v>
       </c>
@@ -8904,7 +8909,7 @@
       <c r="BE122"/>
       <c r="BF122"/>
     </row>
-    <row r="123" spans="6:58">
+    <row r="123" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F123" t="s">
         <v>558</v>
       </c>
@@ -8933,7 +8938,7 @@
       <c r="BE123"/>
       <c r="BF123"/>
     </row>
-    <row r="124" spans="6:58">
+    <row r="124" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F124" t="s">
         <v>562</v>
       </c>
@@ -8962,7 +8967,7 @@
       <c r="BE124"/>
       <c r="BF124"/>
     </row>
-    <row r="125" spans="6:58">
+    <row r="125" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F125" t="s">
         <v>566</v>
       </c>
@@ -8991,7 +8996,7 @@
       <c r="BE125"/>
       <c r="BF125"/>
     </row>
-    <row r="126" spans="6:58">
+    <row r="126" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F126" t="s">
         <v>570</v>
       </c>
@@ -9020,7 +9025,7 @@
       <c r="BE126"/>
       <c r="BF126"/>
     </row>
-    <row r="127" spans="6:58">
+    <row r="127" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F127" t="s">
         <v>574</v>
       </c>
@@ -9049,7 +9054,7 @@
       <c r="BE127"/>
       <c r="BF127"/>
     </row>
-    <row r="128" spans="6:58">
+    <row r="128" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F128" t="s">
         <v>578</v>
       </c>
@@ -9078,7 +9083,7 @@
       <c r="BE128"/>
       <c r="BF128"/>
     </row>
-    <row r="129" spans="6:58">
+    <row r="129" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F129" t="s">
         <v>582</v>
       </c>
@@ -9107,7 +9112,7 @@
       <c r="BE129"/>
       <c r="BF129"/>
     </row>
-    <row r="130" spans="6:58">
+    <row r="130" spans="6:58" x14ac:dyDescent="0.2">
       <c r="F130" t="s">
         <v>586</v>
       </c>
@@ -9136,7 +9141,7 @@
       <c r="BE130"/>
       <c r="BF130"/>
     </row>
-    <row r="131" spans="6:58">
+    <row r="131" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H131" t="s">
         <v>590</v>
       </c>
@@ -9159,7 +9164,7 @@
       <c r="BE131"/>
       <c r="BF131"/>
     </row>
-    <row r="132" spans="6:58">
+    <row r="132" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H132" t="s">
         <v>593</v>
       </c>
@@ -9182,7 +9187,7 @@
       <c r="BE132"/>
       <c r="BF132"/>
     </row>
-    <row r="133" spans="6:58">
+    <row r="133" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H133" t="s">
         <v>596</v>
       </c>
@@ -9205,7 +9210,7 @@
       <c r="BE133"/>
       <c r="BF133"/>
     </row>
-    <row r="134" spans="6:58">
+    <row r="134" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H134" t="s">
         <v>599</v>
       </c>
@@ -9228,7 +9233,7 @@
       <c r="BE134"/>
       <c r="BF134"/>
     </row>
-    <row r="135" spans="6:58">
+    <row r="135" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H135" t="s">
         <v>603</v>
       </c>
@@ -9248,7 +9253,7 @@
       <c r="BE135"/>
       <c r="BF135"/>
     </row>
-    <row r="136" spans="6:58">
+    <row r="136" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H136" t="s">
         <v>606</v>
       </c>
@@ -9268,7 +9273,7 @@
       <c r="BE136"/>
       <c r="BF136"/>
     </row>
-    <row r="137" spans="6:58">
+    <row r="137" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H137" t="s">
         <v>608</v>
       </c>
@@ -9288,7 +9293,7 @@
       <c r="BE137"/>
       <c r="BF137"/>
     </row>
-    <row r="138" spans="6:58">
+    <row r="138" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H138" t="s">
         <v>611</v>
       </c>
@@ -9308,7 +9313,7 @@
       <c r="BE138"/>
       <c r="BF138"/>
     </row>
-    <row r="139" spans="6:58">
+    <row r="139" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H139" t="s">
         <v>614</v>
       </c>
@@ -9325,7 +9330,7 @@
       <c r="BE139"/>
       <c r="BF139"/>
     </row>
-    <row r="140" spans="6:58">
+    <row r="140" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H140" t="s">
         <v>616</v>
       </c>
@@ -9342,7 +9347,7 @@
       <c r="BE140"/>
       <c r="BF140"/>
     </row>
-    <row r="141" spans="6:58">
+    <row r="141" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H141" t="s">
         <v>617</v>
       </c>
@@ -9359,7 +9364,7 @@
       <c r="BE141"/>
       <c r="BF141"/>
     </row>
-    <row r="142" spans="6:58">
+    <row r="142" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H142" t="s">
         <v>618</v>
       </c>
@@ -9376,7 +9381,7 @@
       <c r="BE142"/>
       <c r="BF142"/>
     </row>
-    <row r="143" spans="6:58">
+    <row r="143" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H143" t="s">
         <v>620</v>
       </c>
@@ -9393,7 +9398,7 @@
       <c r="BE143"/>
       <c r="BF143"/>
     </row>
-    <row r="144" spans="6:58">
+    <row r="144" spans="6:58" x14ac:dyDescent="0.2">
       <c r="H144" t="s">
         <v>622</v>
       </c>
@@ -9410,7 +9415,7 @@
       <c r="BE144"/>
       <c r="BF144"/>
     </row>
-    <row r="145" spans="8:58">
+    <row r="145" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H145" t="s">
         <v>624</v>
       </c>
@@ -9427,7 +9432,7 @@
       <c r="BE145"/>
       <c r="BF145"/>
     </row>
-    <row r="146" spans="8:58">
+    <row r="146" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H146" t="s">
         <v>626</v>
       </c>
@@ -9444,7 +9449,7 @@
       <c r="BE146"/>
       <c r="BF146"/>
     </row>
-    <row r="147" spans="8:58">
+    <row r="147" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H147" t="s">
         <v>628</v>
       </c>
@@ -9461,7 +9466,7 @@
       <c r="BE147"/>
       <c r="BF147"/>
     </row>
-    <row r="148" spans="8:58">
+    <row r="148" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H148" t="s">
         <v>630</v>
       </c>
@@ -9478,7 +9483,7 @@
       <c r="BE148"/>
       <c r="BF148"/>
     </row>
-    <row r="149" spans="8:58">
+    <row r="149" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H149" t="s">
         <v>632</v>
       </c>
@@ -9495,7 +9500,7 @@
       <c r="BE149"/>
       <c r="BF149"/>
     </row>
-    <row r="150" spans="8:58">
+    <row r="150" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H150" t="s">
         <v>634</v>
       </c>
@@ -9512,7 +9517,7 @@
       <c r="BE150"/>
       <c r="BF150"/>
     </row>
-    <row r="151" spans="8:58">
+    <row r="151" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H151" t="s">
         <v>635</v>
       </c>
@@ -9529,7 +9534,7 @@
       <c r="BE151"/>
       <c r="BF151"/>
     </row>
-    <row r="152" spans="8:58">
+    <row r="152" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H152" t="s">
         <v>636</v>
       </c>
@@ -9546,7 +9551,7 @@
       <c r="BE152"/>
       <c r="BF152"/>
     </row>
-    <row r="153" spans="8:58">
+    <row r="153" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H153" t="s">
         <v>637</v>
       </c>
@@ -9563,7 +9568,7 @@
       <c r="BE153"/>
       <c r="BF153"/>
     </row>
-    <row r="154" spans="8:58">
+    <row r="154" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H154" t="s">
         <v>638</v>
       </c>
@@ -9580,7 +9585,7 @@
       <c r="BE154"/>
       <c r="BF154"/>
     </row>
-    <row r="155" spans="8:58">
+    <row r="155" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H155" t="s">
         <v>639</v>
       </c>
@@ -9597,7 +9602,7 @@
       <c r="BE155"/>
       <c r="BF155"/>
     </row>
-    <row r="156" spans="8:58">
+    <row r="156" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H156" t="s">
         <v>640</v>
       </c>
@@ -9614,7 +9619,7 @@
       <c r="BE156"/>
       <c r="BF156"/>
     </row>
-    <row r="157" spans="8:58">
+    <row r="157" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H157" t="s">
         <v>641</v>
       </c>
@@ -9631,7 +9636,7 @@
       <c r="BE157"/>
       <c r="BF157"/>
     </row>
-    <row r="158" spans="8:58">
+    <row r="158" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H158" t="s">
         <v>642</v>
       </c>
@@ -9648,7 +9653,7 @@
       <c r="BE158"/>
       <c r="BF158"/>
     </row>
-    <row r="159" spans="8:58">
+    <row r="159" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H159" t="s">
         <v>643</v>
       </c>
@@ -9665,7 +9670,7 @@
       <c r="BE159"/>
       <c r="BF159"/>
     </row>
-    <row r="160" spans="8:58">
+    <row r="160" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H160" t="s">
         <v>644</v>
       </c>
@@ -9682,7 +9687,7 @@
       <c r="BE160"/>
       <c r="BF160"/>
     </row>
-    <row r="161" spans="8:58">
+    <row r="161" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H161" t="s">
         <v>645</v>
       </c>
@@ -9699,7 +9704,7 @@
       <c r="BE161"/>
       <c r="BF161"/>
     </row>
-    <row r="162" spans="8:58">
+    <row r="162" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H162" t="s">
         <v>646</v>
       </c>
@@ -9716,7 +9721,7 @@
       <c r="BE162"/>
       <c r="BF162"/>
     </row>
-    <row r="163" spans="8:58">
+    <row r="163" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H163" t="s">
         <v>647</v>
       </c>
@@ -9733,7 +9738,7 @@
       <c r="BE163"/>
       <c r="BF163"/>
     </row>
-    <row r="164" spans="8:58">
+    <row r="164" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H164" t="s">
         <v>648</v>
       </c>
@@ -9750,7 +9755,7 @@
       <c r="BE164"/>
       <c r="BF164"/>
     </row>
-    <row r="165" spans="8:58">
+    <row r="165" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H165" t="s">
         <v>649</v>
       </c>
@@ -9767,7 +9772,7 @@
       <c r="BE165"/>
       <c r="BF165"/>
     </row>
-    <row r="166" spans="8:58">
+    <row r="166" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H166" t="s">
         <v>650</v>
       </c>
@@ -9784,7 +9789,7 @@
       <c r="BE166"/>
       <c r="BF166"/>
     </row>
-    <row r="167" spans="8:58">
+    <row r="167" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H167" t="s">
         <v>651</v>
       </c>
@@ -9801,7 +9806,7 @@
       <c r="BE167"/>
       <c r="BF167"/>
     </row>
-    <row r="168" spans="8:58">
+    <row r="168" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H168" t="s">
         <v>652</v>
       </c>
@@ -9818,7 +9823,7 @@
       <c r="BE168"/>
       <c r="BF168"/>
     </row>
-    <row r="169" spans="8:58">
+    <row r="169" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H169" t="s">
         <v>653</v>
       </c>
@@ -9835,7 +9840,7 @@
       <c r="BE169"/>
       <c r="BF169"/>
     </row>
-    <row r="170" spans="8:58">
+    <row r="170" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H170" t="s">
         <v>654</v>
       </c>
@@ -9852,7 +9857,7 @@
       <c r="BE170"/>
       <c r="BF170"/>
     </row>
-    <row r="171" spans="8:58">
+    <row r="171" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H171" t="s">
         <v>655</v>
       </c>
@@ -9869,7 +9874,7 @@
       <c r="BE171"/>
       <c r="BF171"/>
     </row>
-    <row r="172" spans="8:58">
+    <row r="172" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H172" t="s">
         <v>656</v>
       </c>
@@ -9886,7 +9891,7 @@
       <c r="BE172"/>
       <c r="BF172"/>
     </row>
-    <row r="173" spans="8:58">
+    <row r="173" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H173" t="s">
         <v>657</v>
       </c>
@@ -9903,7 +9908,7 @@
       <c r="BE173"/>
       <c r="BF173"/>
     </row>
-    <row r="174" spans="8:58">
+    <row r="174" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H174" t="s">
         <v>658</v>
       </c>
@@ -9920,7 +9925,7 @@
       <c r="BE174"/>
       <c r="BF174"/>
     </row>
-    <row r="175" spans="8:58">
+    <row r="175" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H175" t="s">
         <v>659</v>
       </c>
@@ -9937,7 +9942,7 @@
       <c r="BE175"/>
       <c r="BF175"/>
     </row>
-    <row r="176" spans="8:58">
+    <row r="176" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H176" t="s">
         <v>660</v>
       </c>
@@ -9954,7 +9959,7 @@
       <c r="BE176"/>
       <c r="BF176"/>
     </row>
-    <row r="177" spans="8:58">
+    <row r="177" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H177" t="s">
         <v>661</v>
       </c>
@@ -9971,7 +9976,7 @@
       <c r="BE177"/>
       <c r="BF177"/>
     </row>
-    <row r="178" spans="8:58">
+    <row r="178" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H178" t="s">
         <v>662</v>
       </c>
@@ -9988,7 +9993,7 @@
       <c r="BE178"/>
       <c r="BF178"/>
     </row>
-    <row r="179" spans="8:58">
+    <row r="179" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H179" t="s">
         <v>664</v>
       </c>
@@ -10005,7 +10010,7 @@
       <c r="BE179"/>
       <c r="BF179"/>
     </row>
-    <row r="180" spans="8:58">
+    <row r="180" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H180" t="s">
         <v>666</v>
       </c>
@@ -10022,7 +10027,7 @@
       <c r="BE180"/>
       <c r="BF180"/>
     </row>
-    <row r="181" spans="8:58">
+    <row r="181" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H181" t="s">
         <v>668</v>
       </c>
@@ -10039,7 +10044,7 @@
       <c r="BE181"/>
       <c r="BF181"/>
     </row>
-    <row r="182" spans="8:58">
+    <row r="182" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H182" t="s">
         <v>670</v>
       </c>
@@ -10056,7 +10061,7 @@
       <c r="BE182"/>
       <c r="BF182"/>
     </row>
-    <row r="183" spans="8:58">
+    <row r="183" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H183" t="s">
         <v>672</v>
       </c>
@@ -10073,7 +10078,7 @@
       <c r="BE183"/>
       <c r="BF183"/>
     </row>
-    <row r="184" spans="8:58">
+    <row r="184" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H184" t="s">
         <v>674</v>
       </c>
@@ -10090,7 +10095,7 @@
       <c r="BE184"/>
       <c r="BF184"/>
     </row>
-    <row r="185" spans="8:58">
+    <row r="185" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H185" t="s">
         <v>675</v>
       </c>
@@ -10107,7 +10112,7 @@
       <c r="BE185"/>
       <c r="BF185"/>
     </row>
-    <row r="186" spans="8:58">
+    <row r="186" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H186" t="s">
         <v>676</v>
       </c>
@@ -10124,7 +10129,7 @@
       <c r="BE186"/>
       <c r="BF186"/>
     </row>
-    <row r="187" spans="8:58">
+    <row r="187" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H187" t="s">
         <v>677</v>
       </c>
@@ -10141,7 +10146,7 @@
       <c r="BE187"/>
       <c r="BF187"/>
     </row>
-    <row r="188" spans="8:58">
+    <row r="188" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H188" t="s">
         <v>678</v>
       </c>
@@ -10158,7 +10163,7 @@
       <c r="BE188"/>
       <c r="BF188"/>
     </row>
-    <row r="189" spans="8:58">
+    <row r="189" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H189" t="s">
         <v>679</v>
       </c>
@@ -10175,7 +10180,7 @@
       <c r="BE189"/>
       <c r="BF189"/>
     </row>
-    <row r="190" spans="8:58">
+    <row r="190" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H190" t="s">
         <v>681</v>
       </c>
@@ -10192,7 +10197,7 @@
       <c r="BE190"/>
       <c r="BF190"/>
     </row>
-    <row r="191" spans="8:58">
+    <row r="191" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H191" t="s">
         <v>683</v>
       </c>
@@ -10209,7 +10214,7 @@
       <c r="BE191"/>
       <c r="BF191"/>
     </row>
-    <row r="192" spans="8:58">
+    <row r="192" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H192" t="s">
         <v>685</v>
       </c>
@@ -10226,7 +10231,7 @@
       <c r="BE192"/>
       <c r="BF192"/>
     </row>
-    <row r="193" spans="8:58">
+    <row r="193" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H193" t="s">
         <v>687</v>
       </c>
@@ -10243,7 +10248,7 @@
       <c r="BE193"/>
       <c r="BF193"/>
     </row>
-    <row r="194" spans="8:58">
+    <row r="194" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H194" t="s">
         <v>689</v>
       </c>
@@ -10260,7 +10265,7 @@
       <c r="BE194"/>
       <c r="BF194"/>
     </row>
-    <row r="195" spans="8:58">
+    <row r="195" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H195" t="s">
         <v>691</v>
       </c>
@@ -10277,7 +10282,7 @@
       <c r="BE195"/>
       <c r="BF195"/>
     </row>
-    <row r="196" spans="8:58">
+    <row r="196" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H196" t="s">
         <v>693</v>
       </c>
@@ -10294,7 +10299,7 @@
       <c r="BE196"/>
       <c r="BF196"/>
     </row>
-    <row r="197" spans="8:58">
+    <row r="197" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H197" t="s">
         <v>695</v>
       </c>
@@ -10311,7 +10316,7 @@
       <c r="BE197"/>
       <c r="BF197"/>
     </row>
-    <row r="198" spans="8:58">
+    <row r="198" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H198" t="s">
         <v>697</v>
       </c>
@@ -10328,7 +10333,7 @@
       <c r="BE198"/>
       <c r="BF198"/>
     </row>
-    <row r="199" spans="8:58">
+    <row r="199" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H199" t="s">
         <v>699</v>
       </c>
@@ -10345,7 +10350,7 @@
       <c r="BE199"/>
       <c r="BF199"/>
     </row>
-    <row r="200" spans="8:58">
+    <row r="200" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H200" t="s">
         <v>701</v>
       </c>
@@ -10359,7 +10364,7 @@
       <c r="BE200"/>
       <c r="BF200"/>
     </row>
-    <row r="201" spans="8:58">
+    <row r="201" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H201" t="s">
         <v>702</v>
       </c>
@@ -10373,7 +10378,7 @@
       <c r="BE201"/>
       <c r="BF201"/>
     </row>
-    <row r="202" spans="8:58">
+    <row r="202" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H202" t="s">
         <v>703</v>
       </c>
@@ -10387,7 +10392,7 @@
       <c r="BE202"/>
       <c r="BF202"/>
     </row>
-    <row r="203" spans="8:58">
+    <row r="203" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H203" t="s">
         <v>704</v>
       </c>
@@ -10401,7 +10406,7 @@
       <c r="BE203"/>
       <c r="BF203"/>
     </row>
-    <row r="204" spans="8:58">
+    <row r="204" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H204" t="s">
         <v>705</v>
       </c>
@@ -10415,7 +10420,7 @@
       <c r="BE204"/>
       <c r="BF204"/>
     </row>
-    <row r="205" spans="8:58">
+    <row r="205" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H205" t="s">
         <v>706</v>
       </c>
@@ -10426,7 +10431,7 @@
       <c r="BE205"/>
       <c r="BF205"/>
     </row>
-    <row r="206" spans="8:58">
+    <row r="206" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H206" t="s">
         <v>707</v>
       </c>
@@ -10437,7 +10442,7 @@
       <c r="BE206"/>
       <c r="BF206"/>
     </row>
-    <row r="207" spans="8:58">
+    <row r="207" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H207" t="s">
         <v>708</v>
       </c>
@@ -10448,7 +10453,7 @@
       <c r="BE207"/>
       <c r="BF207"/>
     </row>
-    <row r="208" spans="8:58">
+    <row r="208" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H208" t="s">
         <v>709</v>
       </c>
@@ -10459,7 +10464,7 @@
       <c r="BE208"/>
       <c r="BF208"/>
     </row>
-    <row r="209" spans="8:58">
+    <row r="209" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H209" t="s">
         <v>710</v>
       </c>
@@ -10470,7 +10475,7 @@
       <c r="BE209"/>
       <c r="BF209"/>
     </row>
-    <row r="210" spans="8:58">
+    <row r="210" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H210" t="s">
         <v>711</v>
       </c>
@@ -10481,7 +10486,7 @@
       <c r="BE210"/>
       <c r="BF210"/>
     </row>
-    <row r="211" spans="8:58">
+    <row r="211" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H211" t="s">
         <v>712</v>
       </c>
@@ -10492,7 +10497,7 @@
       <c r="BE211"/>
       <c r="BF211"/>
     </row>
-    <row r="212" spans="8:58">
+    <row r="212" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H212" t="s">
         <v>706</v>
       </c>
@@ -10503,7 +10508,7 @@
       <c r="BE212"/>
       <c r="BF212"/>
     </row>
-    <row r="213" spans="8:58">
+    <row r="213" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H213" t="s">
         <v>713</v>
       </c>
@@ -10514,7 +10519,7 @@
       <c r="BE213"/>
       <c r="BF213"/>
     </row>
-    <row r="214" spans="8:58">
+    <row r="214" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H214" t="s">
         <v>714</v>
       </c>
@@ -10525,7 +10530,7 @@
       <c r="BE214"/>
       <c r="BF214"/>
     </row>
-    <row r="215" spans="8:58">
+    <row r="215" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H215" t="s">
         <v>715</v>
       </c>
@@ -10536,7 +10541,7 @@
       <c r="BE215"/>
       <c r="BF215"/>
     </row>
-    <row r="216" spans="8:58">
+    <row r="216" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H216" t="s">
         <v>716</v>
       </c>
@@ -10547,7 +10552,7 @@
       <c r="BE216"/>
       <c r="BF216"/>
     </row>
-    <row r="217" spans="8:58">
+    <row r="217" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H217" t="s">
         <v>717</v>
       </c>
@@ -10558,7 +10563,7 @@
       <c r="BE217"/>
       <c r="BF217"/>
     </row>
-    <row r="218" spans="8:58">
+    <row r="218" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H218" t="s">
         <v>718</v>
       </c>
@@ -10569,7 +10574,7 @@
       <c r="BE218"/>
       <c r="BF218"/>
     </row>
-    <row r="219" spans="8:58">
+    <row r="219" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H219" t="s">
         <v>719</v>
       </c>
@@ -10580,7 +10585,7 @@
       <c r="BE219"/>
       <c r="BF219"/>
     </row>
-    <row r="220" spans="8:58">
+    <row r="220" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H220" t="s">
         <v>720</v>
       </c>
@@ -10591,7 +10596,7 @@
       <c r="BE220"/>
       <c r="BF220"/>
     </row>
-    <row r="221" spans="8:58">
+    <row r="221" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H221" t="s">
         <v>721</v>
       </c>
@@ -10602,7 +10607,7 @@
       <c r="BE221"/>
       <c r="BF221"/>
     </row>
-    <row r="222" spans="8:58">
+    <row r="222" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H222" t="s">
         <v>722</v>
       </c>
@@ -10613,7 +10618,7 @@
       <c r="BE222"/>
       <c r="BF222"/>
     </row>
-    <row r="223" spans="8:58">
+    <row r="223" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H223" t="s">
         <v>723</v>
       </c>
@@ -10624,7 +10629,7 @@
       <c r="BE223"/>
       <c r="BF223"/>
     </row>
-    <row r="224" spans="8:58">
+    <row r="224" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H224" t="s">
         <v>724</v>
       </c>
@@ -10635,7 +10640,7 @@
       <c r="BE224"/>
       <c r="BF224"/>
     </row>
-    <row r="225" spans="8:58">
+    <row r="225" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H225" t="s">
         <v>725</v>
       </c>
@@ -10646,7 +10651,7 @@
       <c r="BE225"/>
       <c r="BF225"/>
     </row>
-    <row r="226" spans="8:58">
+    <row r="226" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H226" t="s">
         <v>726</v>
       </c>
@@ -10657,7 +10662,7 @@
       <c r="BE226"/>
       <c r="BF226"/>
     </row>
-    <row r="227" spans="8:58">
+    <row r="227" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H227" t="s">
         <v>727</v>
       </c>
@@ -10668,7 +10673,7 @@
       <c r="BE227"/>
       <c r="BF227"/>
     </row>
-    <row r="228" spans="8:58">
+    <row r="228" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H228" t="s">
         <v>728</v>
       </c>
@@ -10679,7 +10684,7 @@
       <c r="BE228"/>
       <c r="BF228"/>
     </row>
-    <row r="229" spans="8:58">
+    <row r="229" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H229" t="s">
         <v>729</v>
       </c>
@@ -10690,7 +10695,7 @@
       <c r="BE229"/>
       <c r="BF229"/>
     </row>
-    <row r="230" spans="8:58">
+    <row r="230" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H230" t="s">
         <v>730</v>
       </c>
@@ -10701,7 +10706,7 @@
       <c r="BE230"/>
       <c r="BF230"/>
     </row>
-    <row r="231" spans="8:58">
+    <row r="231" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H231" t="s">
         <v>731</v>
       </c>
@@ -10712,7 +10717,7 @@
       <c r="BE231"/>
       <c r="BF231"/>
     </row>
-    <row r="232" spans="8:58">
+    <row r="232" spans="8:58" x14ac:dyDescent="0.2">
       <c r="H232" t="s">
         <v>732</v>
       </c>
